--- a/medicine/Enfance/Communication-Jeunesse/Communication-Jeunesse.xlsx
+++ b/medicine/Enfance/Communication-Jeunesse/Communication-Jeunesse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Communication-Jeunesse est un organisme sans but lucratif québécois créé en 1971[1]. Il promeut la littérature québécoise et canadienne-française pour la jeunesse[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Communication-Jeunesse est un organisme sans but lucratif québécois créé en 1971. Il promeut la littérature québécoise et canadienne-française pour la jeunesse.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Mission</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La mission de l'organisme Communication-Jeunesse est de promouvoir la lecture et la littérature québécoise et canadienne-française pour la jeunesse sur l'ensemble du territoire québécois et franco-canadien[3]. Pour ce faire, il met sur pied des projets pour « développer leur goût pour la lecture et de s’initier au monde de la littérature jeunesse »[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La mission de l'organisme Communication-Jeunesse est de promouvoir la lecture et la littérature québécoise et canadienne-française pour la jeunesse sur l'ensemble du territoire québécois et franco-canadien. Pour ce faire, il met sur pied des projets pour « développer leur goût pour la lecture et de s’initier au monde de la littérature jeunesse ».
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Vision</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Communication-Jeunesse souhaite que les jeunes lisent davantage et que la littérature jeunesse soit reconnue[3]. L'organisme regroupe des membres de tous les volets du milieu du livre pour la jeunesse du Québec : auteurs, illustrateurs, animateurs, éditeurs, éducateurs et enseignants, bibliothécaires, libraires, intervenants culturels dans le domaine du livre, chercheurs, etc., auxquels s'ajoutent les 300 Clubs de lecture[2][source insuffisante].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Communication-Jeunesse souhaite que les jeunes lisent davantage et que la littérature jeunesse soit reconnue. L'organisme regroupe des membres de tous les volets du milieu du livre pour la jeunesse du Québec : auteurs, illustrateurs, animateurs, éditeurs, éducateurs et enseignants, bibliothécaires, libraires, intervenants culturels dans le domaine du livre, chercheurs, etc., auxquels s'ajoutent les 300 Clubs de lecture[source insuffisante].
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Axes de développement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Communication-Jeunesse s'adresse aux professionnels, aux parents et aux jeunes en matière de littérature jeunesse. L'organisme offre un programme de formations aux professionnels, un programme d'animation de lecture, des rencontres d'auteurs et des sélections de livres semestrielles[3]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Communication-Jeunesse s'adresse aux professionnels, aux parents et aux jeunes en matière de littérature jeunesse. L'organisme offre un programme de formations aux professionnels, un programme d'animation de lecture, des rencontres d'auteurs et des sélections de livres semestrielles. 
 </t>
         </is>
       </c>
@@ -604,12 +622,49 @@
           <t>Palmarès Communication-Jeunesse des livres préférés des jeunes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le palmarès Communication-Jeunesse des livres préférés des jeunes est un prix littéraire que Communication-Jeunesse a créé en 1988[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le palmarès Communication-Jeunesse des livres préférés des jeunes est un prix littéraire que Communication-Jeunesse a créé en 1988.
 Il comprend trois catégories : Livromagie (6 à 9 ans), Livromanie (9 à 12 ans) et Réseau CJ (12 à 17 ans).
-Lauréats
-En 2011, Communication-jeunesse est récipiendaire du Prix Raymond-Plante. Ce prix souligne l'apport unique et l'engagement remarquable d'un citoyen ou d'une corporation qui œuvre dans un des domaines suivants : la littérature jeunesse, l'industrie du livre et l'éducation[5].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Communication-Jeunesse</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Communication-Jeunesse</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Palmarès Communication-Jeunesse des livres préférés des jeunes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2011, Communication-jeunesse est récipiendaire du Prix Raymond-Plante. Ce prix souligne l'apport unique et l'engagement remarquable d'un citoyen ou d'une corporation qui œuvre dans un des domaines suivants : la littérature jeunesse, l'industrie du livre et l'éducation.
 </t>
         </is>
       </c>
